--- a/tests/fichier_test/f_p.xlsx
+++ b/tests/fichier_test/f_p.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projet SCB\Project\reHabi\tests\fichier_test\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Feuil1"/>
+    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="4294967295"/>
 </workbook>
 </file>
 
@@ -475,9 +480,6 @@
     <t>PROF039</t>
   </si>
   <si>
-    <t>PROF40</t>
-  </si>
-  <si>
     <t>Contrôleur</t>
   </si>
   <si>
@@ -485,13 +487,15 @@
   </si>
   <si>
     <t>Contrôleur système</t>
+  </si>
+  <si>
+    <t>PROF040</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -541,34 +545,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -579,10 +586,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -620,71 +627,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -712,7 +719,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -735,11 +742,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -748,13 +755,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -764,7 +771,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -773,7 +780,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -782,7 +789,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -790,10 +797,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -864,25 +871,27 @@
   </sheetPr>
   <dimension ref="A1:L57"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="6" width="17.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="18.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="19.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="22.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="6" width="23.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="6" width="28.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="6" width="24.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="6" width="23.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="6" width="15.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="6" width="17.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="6" width="16.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="6" width="27.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="17" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.28515625" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -912,7 +921,7 @@
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="2" spans="1:12" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -942,7 +951,7 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="3" spans="1:12" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -972,7 +981,7 @@
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="4" spans="1:12" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -1002,7 +1011,7 @@
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="5" spans="1:12" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>21</v>
       </c>
@@ -1032,7 +1041,7 @@
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="6" spans="1:12" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>23</v>
       </c>
@@ -1062,7 +1071,7 @@
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="7" spans="1:12" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>23</v>
       </c>
@@ -1092,7 +1101,7 @@
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="8" spans="1:12" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>28</v>
       </c>
@@ -1122,7 +1131,7 @@
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="9" spans="1:12" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>28</v>
       </c>
@@ -1152,7 +1161,7 @@
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="10" spans="1:12" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>34</v>
       </c>
@@ -1182,7 +1191,7 @@
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="11" spans="1:12" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>34</v>
       </c>
@@ -1212,7 +1221,7 @@
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="12" spans="1:12" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>34</v>
       </c>
@@ -1242,7 +1251,7 @@
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="13" spans="1:12" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>34</v>
       </c>
@@ -1272,7 +1281,7 @@
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="14" spans="1:12" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>36</v>
       </c>
@@ -1302,7 +1311,7 @@
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="15" spans="1:12" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>36</v>
       </c>
@@ -1332,7 +1341,7 @@
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="16" spans="1:12" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>48</v>
       </c>
@@ -1362,7 +1371,7 @@
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="17" spans="1:12" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>52</v>
       </c>
@@ -1392,7 +1401,7 @@
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="18" spans="1:12" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>52</v>
       </c>
@@ -1422,7 +1431,7 @@
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="19" spans="1:12" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>63</v>
       </c>
@@ -1452,7 +1461,7 @@
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="20" spans="1:12" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>63</v>
       </c>
@@ -1482,7 +1491,7 @@
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="21" spans="1:12" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>63</v>
       </c>
@@ -1512,7 +1521,7 @@
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="22" spans="1:12" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>76</v>
       </c>
@@ -1542,7 +1551,7 @@
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="23" spans="1:12" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>76</v>
       </c>
@@ -1580,7 +1589,7 @@
         <v>83</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="24" spans="1:12" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>84</v>
       </c>
@@ -1610,7 +1619,7 @@
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="25" spans="1:12" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>84</v>
       </c>
@@ -1640,7 +1649,7 @@
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="26" spans="1:12" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>95</v>
       </c>
@@ -1670,7 +1679,7 @@
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="27" spans="1:12" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>99</v>
       </c>
@@ -1700,7 +1709,7 @@
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="28" spans="1:12" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>99</v>
       </c>
@@ -1730,7 +1739,7 @@
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="29" spans="1:12" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>109</v>
       </c>
@@ -1760,7 +1769,7 @@
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="30" spans="1:12" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>109</v>
       </c>
@@ -1790,7 +1799,7 @@
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="31" spans="1:12" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>110</v>
       </c>
@@ -1820,7 +1829,7 @@
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="32" spans="1:12" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>110</v>
       </c>
@@ -1850,7 +1859,7 @@
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="33" spans="1:12" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>114</v>
       </c>
@@ -1880,7 +1889,7 @@
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="34" spans="1:12" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>118</v>
       </c>
@@ -1910,7 +1919,7 @@
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="35" spans="1:12" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>121</v>
       </c>
@@ -1940,7 +1949,7 @@
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="36" spans="1:12" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>122</v>
       </c>
@@ -1970,7 +1979,7 @@
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="37" spans="1:12" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>123</v>
       </c>
@@ -2000,7 +2009,7 @@
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="38" spans="1:12" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>124</v>
       </c>
@@ -2030,7 +2039,7 @@
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="39" spans="1:12" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>129</v>
       </c>
@@ -2060,7 +2069,7 @@
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="40" spans="1:12" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>130</v>
       </c>
@@ -2090,7 +2099,7 @@
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="41" spans="1:12" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>137</v>
       </c>
@@ -2120,7 +2129,7 @@
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="42" spans="1:12" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>138</v>
       </c>
@@ -2150,7 +2159,7 @@
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="43" spans="1:12" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>139</v>
       </c>
@@ -2180,7 +2189,7 @@
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="44" spans="1:12" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>140</v>
       </c>
@@ -2210,7 +2219,7 @@
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="45" spans="1:12" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>141</v>
       </c>
@@ -2240,7 +2249,7 @@
       <c r="K45" s="2"/>
       <c r="L45" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="46" spans="1:12" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>142</v>
       </c>
@@ -2270,7 +2279,7 @@
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="47" spans="1:12" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>143</v>
       </c>
@@ -2300,7 +2309,7 @@
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="48" spans="1:12" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>144</v>
       </c>
@@ -2330,7 +2339,7 @@
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="49" spans="1:12" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>145</v>
       </c>
@@ -2360,7 +2369,7 @@
       <c r="K49" s="2"/>
       <c r="L49" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="50" spans="1:12" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>146</v>
       </c>
@@ -2390,7 +2399,7 @@
       <c r="K50" s="2"/>
       <c r="L50" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="51" spans="1:12" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>147</v>
       </c>
@@ -2420,7 +2429,7 @@
       <c r="K51" s="2"/>
       <c r="L51" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="52" spans="1:12" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>148</v>
       </c>
@@ -2450,7 +2459,7 @@
       <c r="K52" s="2"/>
       <c r="L52" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="53" spans="1:12" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>149</v>
       </c>
@@ -2480,7 +2489,7 @@
       <c r="K53" s="2"/>
       <c r="L53" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="54" spans="1:12" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>150</v>
       </c>
@@ -2510,7 +2519,7 @@
       <c r="K54" s="2"/>
       <c r="L54" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="55" spans="1:12" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>151</v>
       </c>
@@ -2540,7 +2549,7 @@
       <c r="K55" s="2"/>
       <c r="L55" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="56" spans="1:12" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>152</v>
       </c>
@@ -2570,12 +2579,12 @@
       <c r="K56" s="2"/>
       <c r="L56" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="57" spans="1:12" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>154</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>131</v>
@@ -2590,10 +2599,10 @@
         <v>134</v>
       </c>
       <c r="G57" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="H57" s="2" t="s">
         <v>155</v>
-      </c>
-      <c r="H57" s="2" t="s">
-        <v>156</v>
       </c>
       <c r="I57" s="2"/>
       <c r="J57" s="2"/>

--- a/tests/fichier_test/f_p.xlsx
+++ b/tests/fichier_test/f_p.xlsx
@@ -871,7 +871,7 @@
   </sheetPr>
   <dimension ref="A1:L57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>

--- a/tests/fichier_test/f_p.xlsx
+++ b/tests/fichier_test/f_p.xlsx
@@ -872,7 +872,7 @@
   <dimension ref="A1:L57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57"/>
+      <selection activeCellId="3" sqref="A40:H40 A48:H48 A56:H57 A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/tests/fichier_test/f_p.xlsx
+++ b/tests/fichier_test/f_p.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="208">
   <si>
     <t>code_profil</t>
   </si>
@@ -45,6 +45,12 @@
     <t>libelle_fonct</t>
   </si>
   <si>
+    <t>date_assignation</t>
+  </si>
+  <si>
+    <t>date_suspension</t>
+  </si>
+  <si>
     <t>PROF001</t>
   </si>
   <si>
@@ -270,9 +276,6 @@
     <t>FUNC014</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>PROF011</t>
   </si>
   <si>
@@ -480,6 +483,9 @@
     <t>PROF039</t>
   </si>
   <si>
+    <t>PROF040</t>
+  </si>
+  <si>
     <t>Contrôleur</t>
   </si>
   <si>
@@ -489,14 +495,161 @@
     <t>Contrôleur système</t>
   </si>
   <si>
-    <t>PROF040</t>
+    <t>2013-04-04 08:00:00</t>
+  </si>
+  <si>
+    <t>2018-09-29 07:53:36</t>
+  </si>
+  <si>
+    <t>2015-06-24 01:56:13</t>
+  </si>
+  <si>
+    <t>2009-10-12 18:17:11</t>
+  </si>
+  <si>
+    <t>2002-12-03 11:34:22</t>
+  </si>
+  <si>
+    <t>2013-12-26 01:49:58</t>
+  </si>
+  <si>
+    <t>2001-05-16 01:54:19</t>
+  </si>
+  <si>
+    <t>2019-12-30 21:57:04</t>
+  </si>
+  <si>
+    <t>2015-10-03 08:26:32</t>
+  </si>
+  <si>
+    <t>2016-06-15 20:30:29</t>
+  </si>
+  <si>
+    <t>2008-01-18 13:44:51</t>
+  </si>
+  <si>
+    <t>2021-04-09 12:42:51</t>
+  </si>
+  <si>
+    <t>2021-07-20 17:19:00</t>
+  </si>
+  <si>
+    <t>2022-03-21 08:35:42</t>
+  </si>
+  <si>
+    <t>2002-11-30 04:57:24</t>
+  </si>
+  <si>
+    <t>2022-07-24 15:32:00</t>
+  </si>
+  <si>
+    <t>2021-07-06 00:57:48</t>
+  </si>
+  <si>
+    <t>2012-04-19 16:54:22</t>
+  </si>
+  <si>
+    <t>2008-07-27 12:12:27</t>
+  </si>
+  <si>
+    <t>2015-10-19 09:51:21</t>
+  </si>
+  <si>
+    <t>2020-05-06 12:45:35</t>
+  </si>
+  <si>
+    <t>2009-04-21 12:22:30</t>
+  </si>
+  <si>
+    <t>2001-12-10 12:35:49</t>
+  </si>
+  <si>
+    <t>2020-03-18 10:17:26</t>
+  </si>
+  <si>
+    <t>2006-09-05 01:31:00</t>
+  </si>
+  <si>
+    <t>2003-07-19 06:09:13</t>
+  </si>
+  <si>
+    <t>2023-10-04 04:17:55</t>
+  </si>
+  <si>
+    <t>2013-07-08 00:14:11</t>
+  </si>
+  <si>
+    <t>2006-08-28 04:46:38</t>
+  </si>
+  <si>
+    <t>2008-01-20 06:23:41</t>
+  </si>
+  <si>
+    <t>2006-01-20 04:51:20</t>
+  </si>
+  <si>
+    <t>2016-04-10 23:31:19</t>
+  </si>
+  <si>
+    <t>2013-02-10 00:22:33</t>
+  </si>
+  <si>
+    <t>2021-05-19 16:13:02</t>
+  </si>
+  <si>
+    <t>2008-12-17 23:43:55</t>
+  </si>
+  <si>
+    <t>2016-01-26 04:05:12</t>
+  </si>
+  <si>
+    <t>2003-09-17 07:14:42</t>
+  </si>
+  <si>
+    <t>2001-08-28 16:35:02</t>
+  </si>
+  <si>
+    <t>2011-10-16 18:48:47</t>
+  </si>
+  <si>
+    <t>2005-07-18 05:36:44</t>
+  </si>
+  <si>
+    <t>2020-10-03 19:15:23</t>
+  </si>
+  <si>
+    <t>2021-09-24 20:15:45</t>
+  </si>
+  <si>
+    <t>2019-11-15 03:46:19</t>
+  </si>
+  <si>
+    <t>2015-09-21 06:05:55</t>
+  </si>
+  <si>
+    <t>2011-06-17 14:37:57</t>
+  </si>
+  <si>
+    <t>2009-09-03 04:33:47</t>
+  </si>
+  <si>
+    <t>2013-04-26 08:58:51</t>
+  </si>
+  <si>
+    <t>2015-10-19 17:13:44</t>
+  </si>
+  <si>
+    <t>2013-05-22 05:21:13</t>
+  </si>
+  <si>
+    <t>2023-05-17 19:12:12</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -515,6 +668,13 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -541,10 +701,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -558,15 +719,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -869,26 +1026,26 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:L57"/>
+  <dimension ref="A1:L58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCellId="3" sqref="A40:H40 A48:H48 A56:H57 A1:H1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="27.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.28515625" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -916,1698 +1073,1810 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
     </row>
     <row r="2" spans="1:12" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>158</v>
+      </c>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
     </row>
     <row r="3" spans="1:12" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>158</v>
+      </c>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
     </row>
     <row r="4" spans="1:12" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="2"/>
+        <v>22</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>158</v>
+      </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
     </row>
     <row r="5" spans="1:12" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>159</v>
+      </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:12" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>160</v>
+      </c>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
     </row>
     <row r="7" spans="1:12" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I7" s="2"/>
+        <v>28</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>161</v>
+      </c>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
     </row>
     <row r="8" spans="1:12" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>162</v>
+      </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
     </row>
     <row r="9" spans="1:12" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I9" s="2"/>
+        <v>35</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>163</v>
+      </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
     </row>
     <row r="10" spans="1:12" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I10" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>164</v>
+      </c>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
     </row>
     <row r="11" spans="1:12" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I11" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>165</v>
+      </c>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
     </row>
     <row r="12" spans="1:12" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="H12" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I12" s="2"/>
+      <c r="I12" s="5" t="s">
+        <v>166</v>
+      </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
     </row>
     <row r="13" spans="1:12" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I13" s="3"/>
+        <v>28</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>167</v>
+      </c>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
     </row>
     <row r="14" spans="1:12" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I14" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>168</v>
+      </c>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
     </row>
     <row r="15" spans="1:12" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I15" s="2"/>
+        <v>49</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>169</v>
+      </c>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
     </row>
     <row r="16" spans="1:12" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I16" s="2"/>
+        <v>53</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>170</v>
+      </c>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
     </row>
     <row r="17" spans="1:12" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D17" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="G17" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="I17" s="2"/>
+        <v>60</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>171</v>
+      </c>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
     </row>
     <row r="18" spans="1:12" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="I18" s="2"/>
+        <v>64</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>172</v>
+      </c>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
     </row>
     <row r="19" spans="1:12" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D19" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="G19" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="I19" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>173</v>
+      </c>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
     </row>
     <row r="20" spans="1:12" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="I20" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>174</v>
+      </c>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
     </row>
     <row r="21" spans="1:12" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="I21" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>175</v>
+      </c>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
     </row>
     <row r="22" spans="1:12" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="I22" s="2"/>
+        <v>83</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>176</v>
+      </c>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
     </row>
     <row r="23" spans="1:12" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="F23" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="G23" s="4" t="s">
+      <c r="E23" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="H23" s="4" t="s">
-        <v>81</v>
+      <c r="F23" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>83</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="J23" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="K23" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="L23" s="5" t="s">
-        <v>83</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
     </row>
     <row r="24" spans="1:12" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="I24" s="2"/>
+        <v>92</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>178</v>
+      </c>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
     </row>
     <row r="25" spans="1:12" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G25" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H25" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="H25" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="I25" s="2"/>
+      <c r="I25" s="5" t="s">
+        <v>179</v>
+      </c>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
     </row>
     <row r="26" spans="1:12" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="I26" s="2"/>
+        <v>99</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>180</v>
+      </c>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
     </row>
     <row r="27" spans="1:12" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="I27" s="2"/>
+        <v>107</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>181</v>
+      </c>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
     </row>
     <row r="28" spans="1:12" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="I28" s="2"/>
+        <v>109</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>182</v>
+      </c>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
     </row>
     <row r="29" spans="1:12" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="H29" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I29" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>183</v>
+      </c>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
     </row>
     <row r="30" spans="1:12" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I30" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>184</v>
+      </c>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
     </row>
     <row r="31" spans="1:12" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="I31" s="2"/>
+        <v>114</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>185</v>
+      </c>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
     </row>
     <row r="32" spans="1:12" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="I32" s="2"/>
+        <v>99</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>186</v>
+      </c>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
     </row>
     <row r="33" spans="1:12" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D33" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F33" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E33" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="G33" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="I33" s="2"/>
+        <v>118</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>187</v>
+      </c>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
     </row>
     <row r="34" spans="1:12" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="I34" s="2"/>
+        <v>121</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>188</v>
+      </c>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
     </row>
     <row r="35" spans="1:12" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="I35" s="2"/>
+        <v>114</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>189</v>
+      </c>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
     </row>
     <row r="36" spans="1:12" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D36" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F36" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E36" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="G36" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="I36" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>190</v>
+      </c>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
     </row>
     <row r="37" spans="1:12" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="I37" s="2"/>
+        <v>83</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>191</v>
+      </c>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
     </row>
     <row r="38" spans="1:12" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="I38" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="I38" s="5" t="s">
+        <v>192</v>
+      </c>
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
     </row>
     <row r="39" spans="1:12" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="I39" s="2"/>
+        <v>107</v>
+      </c>
+      <c r="I39" s="5" t="s">
+        <v>193</v>
+      </c>
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
     </row>
     <row r="40" spans="1:12" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="I40" s="2"/>
+        <v>137</v>
+      </c>
+      <c r="I40" s="5" t="s">
+        <v>194</v>
+      </c>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
     </row>
     <row r="41" spans="1:12" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="I41" s="2"/>
+        <v>114</v>
+      </c>
+      <c r="I41" s="5" t="s">
+        <v>195</v>
+      </c>
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
     </row>
     <row r="42" spans="1:12" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D42" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F42" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E42" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="G42" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="I42" s="2"/>
+        <v>118</v>
+      </c>
+      <c r="I42" s="5" t="s">
+        <v>196</v>
+      </c>
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
     </row>
     <row r="43" spans="1:12" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="I43" s="2"/>
+        <v>121</v>
+      </c>
+      <c r="I43" s="5" t="s">
+        <v>197</v>
+      </c>
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
     </row>
     <row r="44" spans="1:12" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D44" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F44" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E44" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="G44" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="I44" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="I44" s="5" t="s">
+        <v>198</v>
+      </c>
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
     </row>
     <row r="45" spans="1:12" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="I45" s="2"/>
+        <v>83</v>
+      </c>
+      <c r="I45" s="5" t="s">
+        <v>199</v>
+      </c>
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
       <c r="L45" s="2"/>
     </row>
     <row r="46" spans="1:12" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="I46" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="I46" s="5" t="s">
+        <v>200</v>
+      </c>
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
     </row>
     <row r="47" spans="1:12" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="I47" s="2"/>
+        <v>107</v>
+      </c>
+      <c r="I47" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
     </row>
     <row r="48" spans="1:12" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="I48" s="2"/>
+        <v>137</v>
+      </c>
+      <c r="I48" s="5" t="s">
+        <v>202</v>
+      </c>
       <c r="J48" s="2"/>
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
     </row>
     <row r="49" spans="1:12" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="I49" s="2"/>
+        <v>114</v>
+      </c>
+      <c r="I49" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="J49" s="2"/>
       <c r="K49" s="2"/>
       <c r="L49" s="2"/>
     </row>
     <row r="50" spans="1:12" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D50" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F50" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E50" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="G50" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="I50" s="2"/>
+        <v>118</v>
+      </c>
+      <c r="I50" s="5" t="s">
+        <v>204</v>
+      </c>
       <c r="J50" s="2"/>
       <c r="K50" s="2"/>
       <c r="L50" s="2"/>
     </row>
     <row r="51" spans="1:12" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="I51" s="2"/>
+        <v>121</v>
+      </c>
+      <c r="I51" s="5" t="s">
+        <v>205</v>
+      </c>
       <c r="J51" s="2"/>
       <c r="K51" s="2"/>
       <c r="L51" s="2"/>
     </row>
     <row r="52" spans="1:12" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D52" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F52" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E52" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="G52" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="I52" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="I52" s="5" t="s">
+        <v>206</v>
+      </c>
       <c r="J52" s="2"/>
       <c r="K52" s="2"/>
       <c r="L52" s="2"/>
     </row>
     <row r="53" spans="1:12" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="I53" s="2"/>
+        <v>83</v>
+      </c>
+      <c r="I53" s="5" t="s">
+        <v>207</v>
+      </c>
       <c r="J53" s="2"/>
       <c r="K53" s="2"/>
       <c r="L53" s="2"/>
     </row>
     <row r="54" spans="1:12" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="I54" s="2"/>
-      <c r="J54" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="I54" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="J54"/>
       <c r="K54" s="2"/>
       <c r="L54" s="2"/>
     </row>
     <row r="55" spans="1:12" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="I55" s="2"/>
-      <c r="J55" s="2"/>
+        <v>107</v>
+      </c>
+      <c r="I55" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="J55"/>
       <c r="K55" s="2"/>
       <c r="L55" s="2"/>
     </row>
     <row r="56" spans="1:12" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="I56" s="2"/>
-      <c r="J56" s="2"/>
+        <v>137</v>
+      </c>
+      <c r="I56" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="J56"/>
       <c r="K56" s="2"/>
       <c r="L56" s="2"/>
     </row>
     <row r="57" spans="1:12" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="G57" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B57" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="G57" s="2" t="s">
-        <v>154</v>
-      </c>
       <c r="H57" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="I57" s="2"/>
-      <c r="J57" s="2"/>
+        <v>157</v>
+      </c>
+      <c r="I57" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="J57"/>
       <c r="K57" s="2"/>
       <c r="L57" s="2"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I58" s="5"/>
+      <c r="J58"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
